--- a/app/data/mould_new/InputTableA.xlsx
+++ b/app/data/mould_new/InputTableA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eaglezpf/Mega/OMNILab/强生医疗/Project/round1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eaglezpf/Mega/OMNILab/强生医疗/onlineTest/round1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8C7746-E625-1749-83B9-8D6C20605A7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436BC5E1-6ACA-234C-B954-14C1F7387979}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{9EF3DF8A-933E-4092-A046-DF5E59A40277}"/>
   </bookViews>
@@ -35,10 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
-    <t>年手术台数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>推广费用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -396,6 +392,10 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年手术台数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -463,11 +463,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -500,9 +503,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{8FC51FD7-C257-D649-917B-A2FB88E529E5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -817,7 +821,7 @@
   <dimension ref="A1:AO70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -854,121 +858,121 @@
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="V1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF1" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="W1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="AO1" s="8"/>
     </row>
@@ -977,10 +981,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="7">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="D2" s="2">
         <v>1.2</v>
@@ -1003,14 +1007,14 @@
       </c>
       <c r="J2" s="4">
         <f>C2*G2/1000</f>
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="K2" s="4">
         <v>0</v>
       </c>
       <c r="L2" s="4">
         <f>C2*G2*(S2*Q2 + W2*V2)*0.08</f>
-        <v>85600</v>
+        <v>42800</v>
       </c>
       <c r="M2" s="4">
         <v>800</v>
@@ -1036,7 +1040,7 @@
       </c>
       <c r="T2" s="4">
         <f>C2*G2*S2</f>
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="U2" s="4">
         <v>300</v>
@@ -1049,15 +1053,15 @@
       </c>
       <c r="X2" s="4">
         <f>C2*G2*W2</f>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Y2" s="4">
         <f>C2*G2</f>
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="Z2" s="4">
         <f>Y2</f>
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="AA2" s="4">
         <f>Z2-Y2</f>
@@ -1081,11 +1085,11 @@
       </c>
       <c r="AF2" s="6">
         <f t="shared" ref="AF2:AF33" si="2">J2</f>
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="AG2" s="6">
         <f t="shared" ref="AG2:AG33" si="3">L2</f>
-        <v>85600</v>
+        <v>42800</v>
       </c>
       <c r="AH2" s="6">
         <f t="shared" ref="AH2:AH33" si="4">M2</f>
@@ -1100,13 +1104,13 @@
         <v>300</v>
       </c>
       <c r="AK2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="8"/>
     </row>
@@ -1115,10 +1119,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="7">
-        <v>4500</v>
+        <v>2250</v>
       </c>
       <c r="D3" s="2">
         <v>1.2</v>
@@ -1141,14 +1145,14 @@
       </c>
       <c r="J3" s="4">
         <f t="shared" ref="J3:J66" si="7">C3*G3/1000</f>
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="K3" s="4">
         <v>0</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" ref="L3:L66" si="8">C3*G3*(S3*Q3 + W3*V3)*0.08</f>
-        <v>77040</v>
+        <v>38520</v>
       </c>
       <c r="M3" s="4">
         <v>800</v>
@@ -1174,7 +1178,7 @@
       </c>
       <c r="T3" s="4">
         <f t="shared" ref="T3:T66" si="10">C3*G3*S3</f>
-        <v>1350</v>
+        <v>675</v>
       </c>
       <c r="U3" s="4">
         <v>300</v>
@@ -1187,15 +1191,15 @@
       </c>
       <c r="X3" s="4">
         <f t="shared" ref="X3:X66" si="11">C3*G3*W3</f>
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="Y3" s="4">
         <f t="shared" ref="Y3:Y33" si="12">C3*G3</f>
-        <v>2250</v>
+        <v>1125</v>
       </c>
       <c r="Z3" s="4">
         <f t="shared" ref="Z3:Z66" si="13">Y3</f>
-        <v>2250</v>
+        <v>1125</v>
       </c>
       <c r="AA3" s="4">
         <f t="shared" ref="AA3:AA66" si="14">Z3-Y3</f>
@@ -1219,11 +1223,11 @@
       </c>
       <c r="AF3" s="6">
         <f t="shared" si="2"/>
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="AG3" s="6">
         <f t="shared" si="3"/>
-        <v>77040</v>
+        <v>38520</v>
       </c>
       <c r="AH3" s="6">
         <f t="shared" si="4"/>
@@ -1238,13 +1242,13 @@
         <v>300</v>
       </c>
       <c r="AK3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -1252,10 +1256,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="7">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="D4" s="2">
         <v>1.2</v>
@@ -1278,14 +1282,14 @@
       </c>
       <c r="J4" s="4">
         <f t="shared" si="7"/>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="8"/>
-        <v>51360</v>
+        <v>25680</v>
       </c>
       <c r="M4" s="4">
         <v>800</v>
@@ -1311,7 +1315,7 @@
       </c>
       <c r="T4" s="4">
         <f t="shared" si="10"/>
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="U4" s="4">
         <v>300</v>
@@ -1324,15 +1328,15 @@
       </c>
       <c r="X4" s="4">
         <f t="shared" si="11"/>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="Y4" s="4">
         <f t="shared" si="12"/>
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="Z4" s="4">
         <f t="shared" si="13"/>
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="AA4" s="4">
         <f t="shared" si="14"/>
@@ -1356,11 +1360,11 @@
       </c>
       <c r="AF4" s="6">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AG4" s="6">
         <f t="shared" si="3"/>
-        <v>51360</v>
+        <v>25680</v>
       </c>
       <c r="AH4" s="6">
         <f t="shared" si="4"/>
@@ -1381,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="AM4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1389,10 +1393,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="D5" s="2">
         <v>1.2</v>
@@ -1415,14 +1419,14 @@
       </c>
       <c r="J5" s="4">
         <f t="shared" si="7"/>
-        <v>1.25</v>
+        <v>0.625</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="8"/>
-        <v>42800</v>
+        <v>21400</v>
       </c>
       <c r="M5" s="4">
         <v>800</v>
@@ -1448,7 +1452,7 @@
       </c>
       <c r="T5" s="4">
         <f t="shared" si="10"/>
-        <v>750</v>
+        <v>375</v>
       </c>
       <c r="U5" s="4">
         <v>300</v>
@@ -1461,15 +1465,15 @@
       </c>
       <c r="X5" s="4">
         <f t="shared" si="11"/>
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="Y5" s="4">
         <f t="shared" si="12"/>
-        <v>1250</v>
+        <v>625</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="13"/>
-        <v>1250</v>
+        <v>625</v>
       </c>
       <c r="AA5" s="4">
         <f t="shared" si="14"/>
@@ -1493,11 +1497,11 @@
       </c>
       <c r="AF5" s="6">
         <f t="shared" si="2"/>
-        <v>1.25</v>
+        <v>0.625</v>
       </c>
       <c r="AG5" s="6">
         <f t="shared" si="3"/>
-        <v>42800</v>
+        <v>21400</v>
       </c>
       <c r="AH5" s="6">
         <f t="shared" si="4"/>
@@ -1526,10 +1530,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D6" s="2">
         <v>1.2</v>
@@ -1552,14 +1556,14 @@
       </c>
       <c r="J6" s="4">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K6" s="4">
         <v>0</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" si="8"/>
-        <v>34240</v>
+        <v>17120</v>
       </c>
       <c r="M6" s="4">
         <v>800</v>
@@ -1585,7 +1589,7 @@
       </c>
       <c r="T6" s="4">
         <f t="shared" si="10"/>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="U6" s="4">
         <v>300</v>
@@ -1598,15 +1602,15 @@
       </c>
       <c r="X6" s="4">
         <f t="shared" si="11"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="Y6" s="4">
         <f t="shared" si="12"/>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z6" s="4">
         <f t="shared" si="13"/>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AA6" s="4">
         <f t="shared" si="14"/>
@@ -1630,11 +1634,11 @@
       </c>
       <c r="AF6" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AG6" s="6">
         <f t="shared" si="3"/>
-        <v>34240</v>
+        <v>17120</v>
       </c>
       <c r="AH6" s="6">
         <f t="shared" si="4"/>
@@ -1663,10 +1667,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="D7" s="2">
         <v>1.2</v>
@@ -1689,14 +1693,14 @@
       </c>
       <c r="J7" s="4">
         <f t="shared" si="7"/>
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" si="8"/>
-        <v>25680</v>
+        <v>12840</v>
       </c>
       <c r="M7" s="4">
         <v>800</v>
@@ -1722,7 +1726,7 @@
       </c>
       <c r="T7" s="4">
         <f t="shared" si="10"/>
-        <v>450</v>
+        <v>225</v>
       </c>
       <c r="U7" s="4">
         <v>300</v>
@@ -1735,15 +1739,15 @@
       </c>
       <c r="X7" s="4">
         <f t="shared" si="11"/>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="Y7" s="4">
         <f t="shared" si="12"/>
-        <v>750</v>
+        <v>375</v>
       </c>
       <c r="Z7" s="4">
         <f t="shared" si="13"/>
-        <v>750</v>
+        <v>375</v>
       </c>
       <c r="AA7" s="4">
         <f t="shared" si="14"/>
@@ -1767,11 +1771,11 @@
       </c>
       <c r="AF7" s="6">
         <f t="shared" si="2"/>
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="AG7" s="6">
         <f t="shared" si="3"/>
-        <v>25680</v>
+        <v>12840</v>
       </c>
       <c r="AH7" s="6">
         <f t="shared" si="4"/>
@@ -1800,10 +1804,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="7">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="D8" s="2">
         <v>1.2</v>
@@ -1826,14 +1830,14 @@
       </c>
       <c r="J8" s="4">
         <f t="shared" si="7"/>
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="K8" s="4">
         <v>0</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="8"/>
-        <v>25680</v>
+        <v>12840</v>
       </c>
       <c r="M8" s="4">
         <v>800</v>
@@ -1859,7 +1863,7 @@
       </c>
       <c r="T8" s="4">
         <f t="shared" si="10"/>
-        <v>450</v>
+        <v>225</v>
       </c>
       <c r="U8" s="4">
         <v>300</v>
@@ -1872,15 +1876,15 @@
       </c>
       <c r="X8" s="4">
         <f t="shared" si="11"/>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="Y8" s="4">
         <f t="shared" si="12"/>
-        <v>750</v>
+        <v>375</v>
       </c>
       <c r="Z8" s="4">
         <f t="shared" si="13"/>
-        <v>750</v>
+        <v>375</v>
       </c>
       <c r="AA8" s="4">
         <f t="shared" si="14"/>
@@ -1904,11 +1908,11 @@
       </c>
       <c r="AF8" s="6">
         <f t="shared" si="2"/>
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="AG8" s="6">
         <f t="shared" si="3"/>
-        <v>25680</v>
+        <v>12840</v>
       </c>
       <c r="AH8" s="6">
         <f t="shared" si="4"/>
@@ -1937,10 +1941,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="7">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="D9" s="2">
         <v>1.2</v>
@@ -1963,14 +1967,14 @@
       </c>
       <c r="J9" s="4">
         <f t="shared" si="7"/>
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
       </c>
       <c r="L9" s="4">
         <f t="shared" si="8"/>
-        <v>25680</v>
+        <v>12840</v>
       </c>
       <c r="M9" s="4">
         <v>800</v>
@@ -1996,7 +2000,7 @@
       </c>
       <c r="T9" s="4">
         <f t="shared" si="10"/>
-        <v>450</v>
+        <v>225</v>
       </c>
       <c r="U9" s="4">
         <v>300</v>
@@ -2009,15 +2013,15 @@
       </c>
       <c r="X9" s="4">
         <f t="shared" si="11"/>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="Y9" s="4">
         <f t="shared" si="12"/>
-        <v>750</v>
+        <v>375</v>
       </c>
       <c r="Z9" s="4">
         <f t="shared" si="13"/>
-        <v>750</v>
+        <v>375</v>
       </c>
       <c r="AA9" s="4">
         <f t="shared" si="14"/>
@@ -2041,11 +2045,11 @@
       </c>
       <c r="AF9" s="6">
         <f t="shared" si="2"/>
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="AG9" s="6">
         <f t="shared" si="3"/>
-        <v>25680</v>
+        <v>12840</v>
       </c>
       <c r="AH9" s="6">
         <f t="shared" si="4"/>
@@ -2074,10 +2078,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="D10" s="2">
         <v>1.2</v>
@@ -2100,14 +2104,14 @@
       </c>
       <c r="J10" s="4">
         <f t="shared" si="7"/>
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
       </c>
       <c r="L10" s="4">
         <f t="shared" si="8"/>
-        <v>25680</v>
+        <v>12840</v>
       </c>
       <c r="M10" s="4">
         <v>800</v>
@@ -2133,7 +2137,7 @@
       </c>
       <c r="T10" s="4">
         <f t="shared" si="10"/>
-        <v>450</v>
+        <v>225</v>
       </c>
       <c r="U10" s="4">
         <v>300</v>
@@ -2146,15 +2150,15 @@
       </c>
       <c r="X10" s="4">
         <f t="shared" si="11"/>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="Y10" s="4">
         <f t="shared" si="12"/>
-        <v>750</v>
+        <v>375</v>
       </c>
       <c r="Z10" s="4">
         <f t="shared" si="13"/>
-        <v>750</v>
+        <v>375</v>
       </c>
       <c r="AA10" s="4">
         <f t="shared" si="14"/>
@@ -2178,11 +2182,11 @@
       </c>
       <c r="AF10" s="6">
         <f t="shared" si="2"/>
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="AG10" s="6">
         <f t="shared" si="3"/>
-        <v>25680</v>
+        <v>12840</v>
       </c>
       <c r="AH10" s="6">
         <f t="shared" si="4"/>
@@ -2211,10 +2215,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="7">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="D11" s="2">
         <v>1.2</v>
@@ -2237,14 +2241,14 @@
       </c>
       <c r="J11" s="4">
         <f t="shared" si="7"/>
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
       </c>
       <c r="L11" s="4">
         <f t="shared" si="8"/>
-        <v>25680</v>
+        <v>12840</v>
       </c>
       <c r="M11" s="4">
         <v>800</v>
@@ -2270,7 +2274,7 @@
       </c>
       <c r="T11" s="4">
         <f t="shared" si="10"/>
-        <v>450</v>
+        <v>225</v>
       </c>
       <c r="U11" s="4">
         <v>300</v>
@@ -2283,15 +2287,15 @@
       </c>
       <c r="X11" s="4">
         <f t="shared" si="11"/>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="Y11" s="4">
         <f t="shared" si="12"/>
-        <v>750</v>
+        <v>375</v>
       </c>
       <c r="Z11" s="4">
         <f t="shared" si="13"/>
-        <v>750</v>
+        <v>375</v>
       </c>
       <c r="AA11" s="4">
         <f t="shared" si="14"/>
@@ -2315,11 +2319,11 @@
       </c>
       <c r="AF11" s="6">
         <f t="shared" si="2"/>
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="AG11" s="6">
         <f t="shared" si="3"/>
-        <v>25680</v>
+        <v>12840</v>
       </c>
       <c r="AH11" s="6">
         <f t="shared" si="4"/>
@@ -2348,10 +2352,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="7">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="D12" s="2">
         <v>1.2</v>
@@ -2374,14 +2378,14 @@
       </c>
       <c r="J12" s="4">
         <f t="shared" si="7"/>
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="K12" s="4">
         <v>0</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="8"/>
-        <v>25680</v>
+        <v>12840</v>
       </c>
       <c r="M12" s="4">
         <v>800</v>
@@ -2407,7 +2411,7 @@
       </c>
       <c r="T12" s="4">
         <f t="shared" si="10"/>
-        <v>450</v>
+        <v>225</v>
       </c>
       <c r="U12" s="4">
         <v>300</v>
@@ -2420,15 +2424,15 @@
       </c>
       <c r="X12" s="4">
         <f t="shared" si="11"/>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="Y12" s="4">
         <f t="shared" si="12"/>
-        <v>750</v>
+        <v>375</v>
       </c>
       <c r="Z12" s="4">
         <f t="shared" si="13"/>
-        <v>750</v>
+        <v>375</v>
       </c>
       <c r="AA12" s="4">
         <f t="shared" si="14"/>
@@ -2452,11 +2456,11 @@
       </c>
       <c r="AF12" s="6">
         <f t="shared" si="2"/>
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="AG12" s="6">
         <f t="shared" si="3"/>
-        <v>25680</v>
+        <v>12840</v>
       </c>
       <c r="AH12" s="6">
         <f t="shared" si="4"/>
@@ -2485,10 +2489,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="7">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="D13" s="2">
         <v>1.2</v>
@@ -2511,14 +2515,14 @@
       </c>
       <c r="J13" s="4">
         <f t="shared" si="7"/>
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="K13" s="4">
         <v>0</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" si="8"/>
-        <v>20544</v>
+        <v>10272</v>
       </c>
       <c r="M13" s="4">
         <v>800</v>
@@ -2544,7 +2548,7 @@
       </c>
       <c r="T13" s="4">
         <f t="shared" si="10"/>
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="U13" s="4">
         <v>300</v>
@@ -2557,15 +2561,15 @@
       </c>
       <c r="X13" s="4">
         <f t="shared" si="11"/>
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="Y13" s="4">
         <f t="shared" si="12"/>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="Z13" s="4">
         <f t="shared" si="13"/>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="AA13" s="4">
         <f t="shared" si="14"/>
@@ -2589,11 +2593,11 @@
       </c>
       <c r="AF13" s="6">
         <f t="shared" si="2"/>
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AG13" s="6">
         <f t="shared" si="3"/>
-        <v>20544</v>
+        <v>10272</v>
       </c>
       <c r="AH13" s="6">
         <f t="shared" si="4"/>
@@ -2622,10 +2626,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="D14" s="2">
         <v>1.2</v>
@@ -2648,14 +2652,14 @@
       </c>
       <c r="J14" s="4">
         <f t="shared" si="7"/>
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="K14" s="4">
         <v>0</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="8"/>
-        <v>20544</v>
+        <v>10272</v>
       </c>
       <c r="M14" s="4">
         <v>800</v>
@@ -2681,7 +2685,7 @@
       </c>
       <c r="T14" s="4">
         <f t="shared" si="10"/>
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="U14" s="4">
         <v>300</v>
@@ -2694,15 +2698,15 @@
       </c>
       <c r="X14" s="4">
         <f t="shared" si="11"/>
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="Y14" s="4">
         <f t="shared" si="12"/>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="Z14" s="4">
         <f t="shared" si="13"/>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="AA14" s="4">
         <f t="shared" si="14"/>
@@ -2726,11 +2730,11 @@
       </c>
       <c r="AF14" s="6">
         <f t="shared" si="2"/>
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AG14" s="6">
         <f t="shared" si="3"/>
-        <v>20544</v>
+        <v>10272</v>
       </c>
       <c r="AH14" s="6">
         <f t="shared" si="4"/>
@@ -2759,10 +2763,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="7">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="D15" s="2">
         <v>1.2</v>
@@ -2785,14 +2789,14 @@
       </c>
       <c r="J15" s="4">
         <f t="shared" si="7"/>
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="K15" s="4">
         <v>0</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="8"/>
-        <v>20544</v>
+        <v>10272</v>
       </c>
       <c r="M15" s="4">
         <v>800</v>
@@ -2818,7 +2822,7 @@
       </c>
       <c r="T15" s="4">
         <f t="shared" si="10"/>
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="U15" s="4">
         <v>300</v>
@@ -2831,15 +2835,15 @@
       </c>
       <c r="X15" s="4">
         <f t="shared" si="11"/>
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="Y15" s="4">
         <f t="shared" si="12"/>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="Z15" s="4">
         <f t="shared" si="13"/>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="AA15" s="4">
         <f t="shared" si="14"/>
@@ -2863,11 +2867,11 @@
       </c>
       <c r="AF15" s="6">
         <f t="shared" si="2"/>
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AG15" s="6">
         <f t="shared" si="3"/>
-        <v>20544</v>
+        <v>10272</v>
       </c>
       <c r="AH15" s="6">
         <f t="shared" si="4"/>
@@ -2896,10 +2900,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="7">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D16" s="2">
         <v>1.2</v>
@@ -2922,14 +2926,14 @@
       </c>
       <c r="J16" s="4">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
       </c>
       <c r="L16" s="4">
         <f t="shared" si="8"/>
-        <v>17120</v>
+        <v>8560</v>
       </c>
       <c r="M16" s="4">
         <v>800</v>
@@ -2955,7 +2959,7 @@
       </c>
       <c r="T16" s="4">
         <f t="shared" si="10"/>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="U16" s="4">
         <v>300</v>
@@ -2968,15 +2972,15 @@
       </c>
       <c r="X16" s="4">
         <f t="shared" si="11"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y16" s="4">
         <f t="shared" si="12"/>
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="Z16" s="4">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="AA16" s="4">
         <f t="shared" si="14"/>
@@ -3000,11 +3004,11 @@
       </c>
       <c r="AF16" s="6">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AG16" s="6">
         <f t="shared" si="3"/>
-        <v>17120</v>
+        <v>8560</v>
       </c>
       <c r="AH16" s="6">
         <f t="shared" si="4"/>
@@ -3033,10 +3037,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D17" s="2">
         <v>1.2</v>
@@ -3059,14 +3063,14 @@
       </c>
       <c r="J17" s="4">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
       </c>
       <c r="L17" s="4">
         <f t="shared" si="8"/>
-        <v>17120</v>
+        <v>8560</v>
       </c>
       <c r="M17" s="4">
         <v>800</v>
@@ -3092,7 +3096,7 @@
       </c>
       <c r="T17" s="4">
         <f t="shared" si="10"/>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="U17" s="4">
         <v>300</v>
@@ -3105,15 +3109,15 @@
       </c>
       <c r="X17" s="4">
         <f t="shared" si="11"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y17" s="4">
         <f t="shared" si="12"/>
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="Z17" s="4">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="AA17" s="4">
         <f t="shared" si="14"/>
@@ -3137,11 +3141,11 @@
       </c>
       <c r="AF17" s="6">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AG17" s="6">
         <f t="shared" si="3"/>
-        <v>17120</v>
+        <v>8560</v>
       </c>
       <c r="AH17" s="6">
         <f t="shared" si="4"/>
@@ -3170,10 +3174,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="7">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D18" s="2">
         <v>1.2</v>
@@ -3196,14 +3200,14 @@
       </c>
       <c r="J18" s="4">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
       </c>
       <c r="L18" s="4">
         <f t="shared" si="8"/>
-        <v>17120</v>
+        <v>8560</v>
       </c>
       <c r="M18" s="4">
         <v>800</v>
@@ -3229,7 +3233,7 @@
       </c>
       <c r="T18" s="4">
         <f t="shared" si="10"/>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="U18" s="4">
         <v>300</v>
@@ -3242,15 +3246,15 @@
       </c>
       <c r="X18" s="4">
         <f t="shared" si="11"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y18" s="4">
         <f t="shared" si="12"/>
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="Z18" s="4">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="AA18" s="4">
         <f t="shared" si="14"/>
@@ -3274,11 +3278,11 @@
       </c>
       <c r="AF18" s="6">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AG18" s="6">
         <f t="shared" si="3"/>
-        <v>17120</v>
+        <v>8560</v>
       </c>
       <c r="AH18" s="6">
         <f t="shared" si="4"/>
@@ -3307,10 +3311,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D19" s="2">
         <v>1.2</v>
@@ -3333,14 +3337,14 @@
       </c>
       <c r="J19" s="4">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
       </c>
       <c r="L19" s="4">
         <f t="shared" si="8"/>
-        <v>17120</v>
+        <v>8560</v>
       </c>
       <c r="M19" s="4">
         <v>800</v>
@@ -3366,7 +3370,7 @@
       </c>
       <c r="T19" s="4">
         <f t="shared" si="10"/>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="U19" s="4">
         <v>300</v>
@@ -3379,15 +3383,15 @@
       </c>
       <c r="X19" s="4">
         <f t="shared" si="11"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y19" s="4">
         <f t="shared" si="12"/>
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="Z19" s="4">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="AA19" s="4">
         <f t="shared" si="14"/>
@@ -3411,11 +3415,11 @@
       </c>
       <c r="AF19" s="6">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AG19" s="6">
         <f t="shared" si="3"/>
-        <v>17120</v>
+        <v>8560</v>
       </c>
       <c r="AH19" s="6">
         <f t="shared" si="4"/>
@@ -3444,10 +3448,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="7">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D20" s="2">
         <v>1.2</v>
@@ -3470,14 +3474,14 @@
       </c>
       <c r="J20" s="4">
         <f t="shared" si="7"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="8"/>
-        <v>17120</v>
+        <v>8560</v>
       </c>
       <c r="M20" s="4">
         <v>800</v>
@@ -3503,7 +3507,7 @@
       </c>
       <c r="T20" s="4">
         <f t="shared" si="10"/>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="U20" s="4">
         <v>300</v>
@@ -3516,15 +3520,15 @@
       </c>
       <c r="X20" s="4">
         <f t="shared" si="11"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y20" s="4">
         <f t="shared" si="12"/>
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="Z20" s="4">
         <f t="shared" si="13"/>
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="AA20" s="4">
         <f t="shared" si="14"/>
@@ -3548,11 +3552,11 @@
       </c>
       <c r="AF20" s="6">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AG20" s="6">
         <f t="shared" si="3"/>
-        <v>17120</v>
+        <v>8560</v>
       </c>
       <c r="AH20" s="6">
         <f t="shared" si="4"/>
@@ -3581,10 +3585,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="7">
-        <v>998</v>
+        <v>499</v>
       </c>
       <c r="D21" s="2">
         <v>1.2</v>
@@ -3607,14 +3611,14 @@
       </c>
       <c r="J21" s="4">
         <f t="shared" si="7"/>
-        <v>0.17963999999999999</v>
+        <v>8.9819999999999997E-2</v>
       </c>
       <c r="K21" s="4">
         <v>0</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" si="8"/>
-        <v>6150.8735999999999</v>
+        <v>3075.4367999999999</v>
       </c>
       <c r="M21" s="4">
         <v>800</v>
@@ -3640,7 +3644,7 @@
       </c>
       <c r="T21" s="4">
         <f t="shared" si="10"/>
-        <v>107.78399999999999</v>
+        <v>53.891999999999996</v>
       </c>
       <c r="U21" s="4">
         <v>300</v>
@@ -3653,15 +3657,15 @@
       </c>
       <c r="X21" s="4">
         <f t="shared" si="11"/>
-        <v>71.855999999999995</v>
+        <v>35.927999999999997</v>
       </c>
       <c r="Y21" s="4">
         <f t="shared" si="12"/>
-        <v>179.64</v>
+        <v>89.82</v>
       </c>
       <c r="Z21" s="4">
         <f t="shared" si="13"/>
-        <v>179.64</v>
+        <v>89.82</v>
       </c>
       <c r="AA21" s="4">
         <f t="shared" si="14"/>
@@ -3685,11 +3689,11 @@
       </c>
       <c r="AF21" s="6">
         <f t="shared" si="2"/>
-        <v>0.17963999999999999</v>
+        <v>8.9819999999999997E-2</v>
       </c>
       <c r="AG21" s="6">
         <f t="shared" si="3"/>
-        <v>6150.8735999999999</v>
+        <v>3075.4367999999999</v>
       </c>
       <c r="AH21" s="6">
         <f t="shared" si="4"/>
@@ -3718,10 +3722,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="7">
-        <v>925</v>
+        <v>462.5</v>
       </c>
       <c r="D22" s="2">
         <v>1.2</v>
@@ -3744,14 +3748,14 @@
       </c>
       <c r="J22" s="4">
         <f t="shared" si="7"/>
-        <v>0.16650000000000001</v>
+        <v>8.3250000000000005E-2</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
       </c>
       <c r="L22" s="4">
         <f t="shared" si="8"/>
-        <v>5700.96</v>
+        <v>2850.48</v>
       </c>
       <c r="M22" s="4">
         <v>800</v>
@@ -3777,7 +3781,7 @@
       </c>
       <c r="T22" s="4">
         <f t="shared" si="10"/>
-        <v>99.899999999999991</v>
+        <v>49.949999999999996</v>
       </c>
       <c r="U22" s="4">
         <v>300</v>
@@ -3790,15 +3794,15 @@
       </c>
       <c r="X22" s="4">
         <f t="shared" si="11"/>
-        <v>66.600000000000009</v>
+        <v>33.300000000000004</v>
       </c>
       <c r="Y22" s="4">
         <f t="shared" si="12"/>
-        <v>166.5</v>
+        <v>83.25</v>
       </c>
       <c r="Z22" s="4">
         <f t="shared" si="13"/>
-        <v>166.5</v>
+        <v>83.25</v>
       </c>
       <c r="AA22" s="4">
         <f t="shared" si="14"/>
@@ -3822,11 +3826,11 @@
       </c>
       <c r="AF22" s="6">
         <f t="shared" si="2"/>
-        <v>0.16650000000000001</v>
+        <v>8.3250000000000005E-2</v>
       </c>
       <c r="AG22" s="6">
         <f t="shared" si="3"/>
-        <v>5700.96</v>
+        <v>2850.48</v>
       </c>
       <c r="AH22" s="6">
         <f t="shared" si="4"/>
@@ -3855,10 +3859,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="7">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="D23" s="2">
         <v>1.2</v>
@@ -3881,14 +3885,14 @@
       </c>
       <c r="J23" s="4">
         <f t="shared" si="7"/>
-        <v>0.16200000000000001</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
       </c>
       <c r="L23" s="4">
         <f t="shared" si="8"/>
-        <v>5546.88</v>
+        <v>2773.44</v>
       </c>
       <c r="M23" s="4">
         <v>800</v>
@@ -3914,7 +3918,7 @@
       </c>
       <c r="T23" s="4">
         <f t="shared" si="10"/>
-        <v>97.2</v>
+        <v>48.6</v>
       </c>
       <c r="U23" s="4">
         <v>300</v>
@@ -3927,15 +3931,15 @@
       </c>
       <c r="X23" s="4">
         <f t="shared" si="11"/>
-        <v>64.8</v>
+        <v>32.4</v>
       </c>
       <c r="Y23" s="4">
         <f t="shared" si="12"/>
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="Z23" s="4">
         <f t="shared" si="13"/>
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="AA23" s="4">
         <f t="shared" si="14"/>
@@ -3959,11 +3963,11 @@
       </c>
       <c r="AF23" s="6">
         <f t="shared" si="2"/>
-        <v>0.16200000000000001</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="AG23" s="6">
         <f t="shared" si="3"/>
-        <v>5546.88</v>
+        <v>2773.44</v>
       </c>
       <c r="AH23" s="6">
         <f t="shared" si="4"/>
@@ -3992,10 +3996,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="7">
-        <v>850</v>
+        <v>425</v>
       </c>
       <c r="D24" s="2">
         <v>1.2</v>
@@ -4018,14 +4022,14 @@
       </c>
       <c r="J24" s="4">
         <f t="shared" si="7"/>
-        <v>0.153</v>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="K24" s="4">
         <v>0</v>
       </c>
       <c r="L24" s="4">
         <f t="shared" si="8"/>
-        <v>5238.72</v>
+        <v>2619.36</v>
       </c>
       <c r="M24" s="4">
         <v>800</v>
@@ -4051,7 +4055,7 @@
       </c>
       <c r="T24" s="4">
         <f t="shared" si="10"/>
-        <v>91.8</v>
+        <v>45.9</v>
       </c>
       <c r="U24" s="4">
         <v>300</v>
@@ -4064,15 +4068,15 @@
       </c>
       <c r="X24" s="4">
         <f t="shared" si="11"/>
-        <v>61.2</v>
+        <v>30.6</v>
       </c>
       <c r="Y24" s="4">
         <f t="shared" si="12"/>
-        <v>153</v>
+        <v>76.5</v>
       </c>
       <c r="Z24" s="4">
         <f t="shared" si="13"/>
-        <v>153</v>
+        <v>76.5</v>
       </c>
       <c r="AA24" s="4">
         <f t="shared" si="14"/>
@@ -4096,11 +4100,11 @@
       </c>
       <c r="AF24" s="6">
         <f t="shared" si="2"/>
-        <v>0.153</v>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="AG24" s="6">
         <f t="shared" si="3"/>
-        <v>5238.72</v>
+        <v>2619.36</v>
       </c>
       <c r="AH24" s="6">
         <f t="shared" si="4"/>
@@ -4129,10 +4133,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="D25" s="2">
         <v>1.2</v>
@@ -4155,14 +4159,14 @@
       </c>
       <c r="J25" s="4">
         <f t="shared" si="7"/>
-        <v>0.14399999999999999</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="K25" s="4">
         <v>0</v>
       </c>
       <c r="L25" s="4">
         <f t="shared" si="8"/>
-        <v>4930.5600000000004</v>
+        <v>2465.2800000000002</v>
       </c>
       <c r="M25" s="4">
         <v>800</v>
@@ -4188,7 +4192,7 @@
       </c>
       <c r="T25" s="4">
         <f t="shared" si="10"/>
-        <v>86.399999999999991</v>
+        <v>43.199999999999996</v>
       </c>
       <c r="U25" s="4">
         <v>300</v>
@@ -4201,15 +4205,15 @@
       </c>
       <c r="X25" s="4">
         <f t="shared" si="11"/>
-        <v>57.6</v>
+        <v>28.8</v>
       </c>
       <c r="Y25" s="4">
         <f t="shared" si="12"/>
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="Z25" s="4">
         <f t="shared" si="13"/>
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="AA25" s="4">
         <f t="shared" si="14"/>
@@ -4233,11 +4237,11 @@
       </c>
       <c r="AF25" s="6">
         <f t="shared" si="2"/>
-        <v>0.14399999999999999</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="AG25" s="6">
         <f t="shared" si="3"/>
-        <v>4930.5600000000004</v>
+        <v>2465.2800000000002</v>
       </c>
       <c r="AH25" s="6">
         <f t="shared" si="4"/>
@@ -4266,10 +4270,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="7">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="D26" s="2">
         <v>1.2</v>
@@ -4292,14 +4296,14 @@
       </c>
       <c r="J26" s="4">
         <f t="shared" si="7"/>
-        <v>0.14399999999999999</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="K26" s="4">
         <v>0</v>
       </c>
       <c r="L26" s="4">
         <f t="shared" si="8"/>
-        <v>4930.5600000000004</v>
+        <v>2465.2800000000002</v>
       </c>
       <c r="M26" s="4">
         <v>800</v>
@@ -4325,7 +4329,7 @@
       </c>
       <c r="T26" s="4">
         <f t="shared" si="10"/>
-        <v>86.399999999999991</v>
+        <v>43.199999999999996</v>
       </c>
       <c r="U26" s="4">
         <v>300</v>
@@ -4338,15 +4342,15 @@
       </c>
       <c r="X26" s="4">
         <f t="shared" si="11"/>
-        <v>57.6</v>
+        <v>28.8</v>
       </c>
       <c r="Y26" s="4">
         <f t="shared" si="12"/>
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="Z26" s="4">
         <f t="shared" si="13"/>
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="AA26" s="4">
         <f t="shared" si="14"/>
@@ -4370,11 +4374,11 @@
       </c>
       <c r="AF26" s="6">
         <f t="shared" si="2"/>
-        <v>0.14399999999999999</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="AG26" s="6">
         <f t="shared" si="3"/>
-        <v>4930.5600000000004</v>
+        <v>2465.2800000000002</v>
       </c>
       <c r="AH26" s="6">
         <f t="shared" si="4"/>
@@ -4403,10 +4407,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="D27" s="2">
         <v>1.2</v>
@@ -4429,14 +4433,14 @@
       </c>
       <c r="J27" s="4">
         <f t="shared" si="7"/>
-        <v>0.14399999999999999</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="K27" s="4">
         <v>0</v>
       </c>
       <c r="L27" s="4">
         <f t="shared" si="8"/>
-        <v>4930.5600000000004</v>
+        <v>2465.2800000000002</v>
       </c>
       <c r="M27" s="4">
         <v>800</v>
@@ -4462,7 +4466,7 @@
       </c>
       <c r="T27" s="4">
         <f t="shared" si="10"/>
-        <v>86.399999999999991</v>
+        <v>43.199999999999996</v>
       </c>
       <c r="U27" s="4">
         <v>300</v>
@@ -4475,15 +4479,15 @@
       </c>
       <c r="X27" s="4">
         <f t="shared" si="11"/>
-        <v>57.6</v>
+        <v>28.8</v>
       </c>
       <c r="Y27" s="4">
         <f t="shared" si="12"/>
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="Z27" s="4">
         <f t="shared" si="13"/>
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="AA27" s="4">
         <f t="shared" si="14"/>
@@ -4507,11 +4511,11 @@
       </c>
       <c r="AF27" s="6">
         <f t="shared" si="2"/>
-        <v>0.14399999999999999</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="AG27" s="6">
         <f t="shared" si="3"/>
-        <v>4930.5600000000004</v>
+        <v>2465.2800000000002</v>
       </c>
       <c r="AH27" s="6">
         <f t="shared" si="4"/>
@@ -4540,10 +4544,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="7">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="D28" s="2">
         <v>1.2</v>
@@ -4566,14 +4570,14 @@
       </c>
       <c r="J28" s="4">
         <f t="shared" si="7"/>
-        <v>0.14399999999999999</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="K28" s="4">
         <v>0</v>
       </c>
       <c r="L28" s="4">
         <f t="shared" si="8"/>
-        <v>4930.5600000000004</v>
+        <v>2465.2800000000002</v>
       </c>
       <c r="M28" s="4">
         <v>800</v>
@@ -4599,7 +4603,7 @@
       </c>
       <c r="T28" s="4">
         <f t="shared" si="10"/>
-        <v>86.399999999999991</v>
+        <v>43.199999999999996</v>
       </c>
       <c r="U28" s="4">
         <v>300</v>
@@ -4612,15 +4616,15 @@
       </c>
       <c r="X28" s="4">
         <f t="shared" si="11"/>
-        <v>57.6</v>
+        <v>28.8</v>
       </c>
       <c r="Y28" s="4">
         <f t="shared" si="12"/>
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="Z28" s="4">
         <f t="shared" si="13"/>
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="AA28" s="4">
         <f t="shared" si="14"/>
@@ -4644,11 +4648,11 @@
       </c>
       <c r="AF28" s="6">
         <f t="shared" si="2"/>
-        <v>0.14399999999999999</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="AG28" s="6">
         <f t="shared" si="3"/>
-        <v>4930.5600000000004</v>
+        <v>2465.2800000000002</v>
       </c>
       <c r="AH28" s="6">
         <f t="shared" si="4"/>
@@ -4677,10 +4681,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="7">
-        <v>750</v>
+        <v>375</v>
       </c>
       <c r="D29" s="2">
         <v>1.2</v>
@@ -4703,14 +4707,14 @@
       </c>
       <c r="J29" s="4">
         <f t="shared" si="7"/>
-        <v>0.13500000000000001</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="K29" s="4">
         <v>0</v>
       </c>
       <c r="L29" s="4">
         <f t="shared" si="8"/>
-        <v>4622.4000000000005</v>
+        <v>2311.2000000000003</v>
       </c>
       <c r="M29" s="4">
         <v>800</v>
@@ -4736,7 +4740,7 @@
       </c>
       <c r="T29" s="4">
         <f t="shared" si="10"/>
-        <v>81</v>
+        <v>40.5</v>
       </c>
       <c r="U29" s="4">
         <v>300</v>
@@ -4749,15 +4753,15 @@
       </c>
       <c r="X29" s="4">
         <f t="shared" si="11"/>
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="Y29" s="4">
         <f t="shared" si="12"/>
-        <v>135</v>
+        <v>67.5</v>
       </c>
       <c r="Z29" s="4">
         <f t="shared" si="13"/>
-        <v>135</v>
+        <v>67.5</v>
       </c>
       <c r="AA29" s="4">
         <f t="shared" si="14"/>
@@ -4781,11 +4785,11 @@
       </c>
       <c r="AF29" s="6">
         <f t="shared" si="2"/>
-        <v>0.13500000000000001</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="AG29" s="6">
         <f t="shared" si="3"/>
-        <v>4622.4000000000005</v>
+        <v>2311.2000000000003</v>
       </c>
       <c r="AH29" s="6">
         <f t="shared" si="4"/>
@@ -4814,10 +4818,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="7">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="D30" s="2">
         <v>1.2</v>
@@ -4840,14 +4844,14 @@
       </c>
       <c r="J30" s="4">
         <f t="shared" si="7"/>
-        <v>0.126</v>
+        <v>6.3E-2</v>
       </c>
       <c r="K30" s="4">
         <v>0</v>
       </c>
       <c r="L30" s="4">
         <f t="shared" si="8"/>
-        <v>4314.24</v>
+        <v>2157.12</v>
       </c>
       <c r="M30" s="4">
         <v>800</v>
@@ -4873,7 +4877,7 @@
       </c>
       <c r="T30" s="4">
         <f t="shared" si="10"/>
-        <v>75.599999999999994</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="U30" s="4">
         <v>300</v>
@@ -4886,15 +4890,15 @@
       </c>
       <c r="X30" s="4">
         <f t="shared" si="11"/>
-        <v>50.400000000000006</v>
+        <v>25.200000000000003</v>
       </c>
       <c r="Y30" s="4">
         <f t="shared" si="12"/>
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="Z30" s="4">
         <f t="shared" si="13"/>
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="AA30" s="4">
         <f t="shared" si="14"/>
@@ -4918,11 +4922,11 @@
       </c>
       <c r="AF30" s="6">
         <f t="shared" si="2"/>
-        <v>0.126</v>
+        <v>6.3E-2</v>
       </c>
       <c r="AG30" s="6">
         <f t="shared" si="3"/>
-        <v>4314.24</v>
+        <v>2157.12</v>
       </c>
       <c r="AH30" s="6">
         <f t="shared" si="4"/>
@@ -4951,10 +4955,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="7">
-        <v>650</v>
+        <v>325</v>
       </c>
       <c r="D31" s="2">
         <v>1.2</v>
@@ -4977,14 +4981,14 @@
       </c>
       <c r="J31" s="4">
         <f t="shared" si="7"/>
-        <v>0.11700000000000001</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="K31" s="4">
         <v>0</v>
       </c>
       <c r="L31" s="4">
         <f t="shared" si="8"/>
-        <v>4006.08</v>
+        <v>2003.04</v>
       </c>
       <c r="M31" s="4">
         <v>800</v>
@@ -5010,7 +5014,7 @@
       </c>
       <c r="T31" s="4">
         <f t="shared" si="10"/>
-        <v>70.2</v>
+        <v>35.1</v>
       </c>
       <c r="U31" s="4">
         <v>300</v>
@@ -5023,15 +5027,15 @@
       </c>
       <c r="X31" s="4">
         <f t="shared" si="11"/>
-        <v>46.800000000000004</v>
+        <v>23.400000000000002</v>
       </c>
       <c r="Y31" s="4">
         <f t="shared" si="12"/>
-        <v>117</v>
+        <v>58.5</v>
       </c>
       <c r="Z31" s="4">
         <f t="shared" si="13"/>
-        <v>117</v>
+        <v>58.5</v>
       </c>
       <c r="AA31" s="4">
         <f t="shared" si="14"/>
@@ -5055,11 +5059,11 @@
       </c>
       <c r="AF31" s="6">
         <f t="shared" si="2"/>
-        <v>0.11700000000000001</v>
+        <v>5.8500000000000003E-2</v>
       </c>
       <c r="AG31" s="6">
         <f t="shared" si="3"/>
-        <v>4006.08</v>
+        <v>2003.04</v>
       </c>
       <c r="AH31" s="6">
         <f t="shared" si="4"/>
@@ -5088,10 +5092,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="7">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="D32" s="2">
         <v>1.2</v>
@@ -5114,14 +5118,14 @@
       </c>
       <c r="J32" s="4">
         <f t="shared" si="7"/>
-        <v>0.108</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="K32" s="4">
         <v>0</v>
       </c>
       <c r="L32" s="4">
         <f t="shared" si="8"/>
-        <v>3697.92</v>
+        <v>1848.96</v>
       </c>
       <c r="M32" s="4">
         <v>800</v>
@@ -5147,7 +5151,7 @@
       </c>
       <c r="T32" s="4">
         <f t="shared" si="10"/>
-        <v>64.8</v>
+        <v>32.4</v>
       </c>
       <c r="U32" s="4">
         <v>300</v>
@@ -5160,15 +5164,15 @@
       </c>
       <c r="X32" s="4">
         <f t="shared" si="11"/>
-        <v>43.2</v>
+        <v>21.6</v>
       </c>
       <c r="Y32" s="4">
         <f t="shared" si="12"/>
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="Z32" s="4">
         <f t="shared" si="13"/>
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="AA32" s="4">
         <f t="shared" si="14"/>
@@ -5192,11 +5196,11 @@
       </c>
       <c r="AF32" s="6">
         <f t="shared" si="2"/>
-        <v>0.108</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="AG32" s="6">
         <f t="shared" si="3"/>
-        <v>3697.92</v>
+        <v>1848.96</v>
       </c>
       <c r="AH32" s="6">
         <f t="shared" si="4"/>
@@ -5225,10 +5229,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" s="7">
-        <v>550</v>
+        <v>275</v>
       </c>
       <c r="D33" s="2">
         <v>1.2</v>
@@ -5251,14 +5255,14 @@
       </c>
       <c r="J33" s="4">
         <f t="shared" si="7"/>
-        <v>9.9000000000000005E-2</v>
+        <v>4.9500000000000002E-2</v>
       </c>
       <c r="K33" s="4">
         <v>0</v>
       </c>
       <c r="L33" s="4">
         <f t="shared" si="8"/>
-        <v>3389.76</v>
+        <v>1694.88</v>
       </c>
       <c r="M33" s="4">
         <v>800</v>
@@ -5284,7 +5288,7 @@
       </c>
       <c r="T33" s="4">
         <f t="shared" si="10"/>
-        <v>59.4</v>
+        <v>29.7</v>
       </c>
       <c r="U33" s="4">
         <v>300</v>
@@ -5297,15 +5301,15 @@
       </c>
       <c r="X33" s="4">
         <f t="shared" si="11"/>
-        <v>39.6</v>
+        <v>19.8</v>
       </c>
       <c r="Y33" s="4">
         <f t="shared" si="12"/>
-        <v>99</v>
+        <v>49.5</v>
       </c>
       <c r="Z33" s="4">
         <f t="shared" si="13"/>
-        <v>99</v>
+        <v>49.5</v>
       </c>
       <c r="AA33" s="4">
         <f t="shared" si="14"/>
@@ -5329,11 +5333,11 @@
       </c>
       <c r="AF33" s="6">
         <f t="shared" si="2"/>
-        <v>9.9000000000000005E-2</v>
+        <v>4.9500000000000002E-2</v>
       </c>
       <c r="AG33" s="6">
         <f t="shared" si="3"/>
-        <v>3389.76</v>
+        <v>1694.88</v>
       </c>
       <c r="AH33" s="6">
         <f t="shared" si="4"/>
@@ -5362,10 +5366,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="7">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D34" s="2">
         <v>1.2</v>
@@ -5388,14 +5392,14 @@
       </c>
       <c r="J34" s="4">
         <f t="shared" si="7"/>
-        <v>0.09</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="K34" s="4">
         <v>0</v>
       </c>
       <c r="L34" s="4">
         <f t="shared" si="8"/>
-        <v>3081.6</v>
+        <v>1540.8</v>
       </c>
       <c r="M34" s="4">
         <v>800</v>
@@ -5421,7 +5425,7 @@
       </c>
       <c r="T34" s="4">
         <f t="shared" si="10"/>
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="U34" s="4">
         <v>300</v>
@@ -5434,15 +5438,15 @@
       </c>
       <c r="X34" s="4">
         <f t="shared" si="11"/>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="Y34" s="4">
         <f t="shared" ref="Y34:Y70" si="18">C34*G34</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="Z34" s="4">
         <f t="shared" si="13"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="AA34" s="4">
         <f t="shared" si="14"/>
@@ -5466,11 +5470,11 @@
       </c>
       <c r="AF34" s="6">
         <f t="shared" ref="AF34:AF70" si="21">J34</f>
-        <v>0.09</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AG34" s="6">
         <f t="shared" ref="AG34:AG70" si="22">L34</f>
-        <v>3081.6</v>
+        <v>1540.8</v>
       </c>
       <c r="AH34" s="6">
         <f t="shared" ref="AH34:AH70" si="23">M34</f>
@@ -5499,10 +5503,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" s="7">
-        <v>450</v>
+        <v>225</v>
       </c>
       <c r="D35" s="2">
         <v>1.2</v>
@@ -5525,14 +5529,14 @@
       </c>
       <c r="J35" s="4">
         <f t="shared" si="7"/>
-        <v>8.1000000000000003E-2</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="K35" s="4">
         <v>0</v>
       </c>
       <c r="L35" s="4">
         <f t="shared" si="8"/>
-        <v>2773.44</v>
+        <v>1386.72</v>
       </c>
       <c r="M35" s="4">
         <v>800</v>
@@ -5558,7 +5562,7 @@
       </c>
       <c r="T35" s="4">
         <f t="shared" si="10"/>
-        <v>48.6</v>
+        <v>24.3</v>
       </c>
       <c r="U35" s="4">
         <v>300</v>
@@ -5571,15 +5575,15 @@
       </c>
       <c r="X35" s="4">
         <f t="shared" si="11"/>
-        <v>32.4</v>
+        <v>16.2</v>
       </c>
       <c r="Y35" s="4">
         <f t="shared" si="18"/>
-        <v>81</v>
+        <v>40.5</v>
       </c>
       <c r="Z35" s="4">
         <f t="shared" si="13"/>
-        <v>81</v>
+        <v>40.5</v>
       </c>
       <c r="AA35" s="4">
         <f t="shared" si="14"/>
@@ -5603,11 +5607,11 @@
       </c>
       <c r="AF35" s="6">
         <f t="shared" si="21"/>
-        <v>8.1000000000000003E-2</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="AG35" s="6">
         <f t="shared" si="22"/>
-        <v>2773.44</v>
+        <v>1386.72</v>
       </c>
       <c r="AH35" s="6">
         <f t="shared" si="23"/>
@@ -5636,10 +5640,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="7">
-        <v>450</v>
+        <v>225</v>
       </c>
       <c r="D36" s="2">
         <v>1.2</v>
@@ -5662,14 +5666,14 @@
       </c>
       <c r="J36" s="4">
         <f t="shared" si="7"/>
-        <v>8.1000000000000003E-2</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="K36" s="4">
         <v>0</v>
       </c>
       <c r="L36" s="4">
         <f t="shared" si="8"/>
-        <v>2773.44</v>
+        <v>1386.72</v>
       </c>
       <c r="M36" s="4">
         <v>800</v>
@@ -5695,7 +5699,7 @@
       </c>
       <c r="T36" s="4">
         <f t="shared" si="10"/>
-        <v>48.6</v>
+        <v>24.3</v>
       </c>
       <c r="U36" s="4">
         <v>300</v>
@@ -5708,15 +5712,15 @@
       </c>
       <c r="X36" s="4">
         <f t="shared" si="11"/>
-        <v>32.4</v>
+        <v>16.2</v>
       </c>
       <c r="Y36" s="4">
         <f t="shared" si="18"/>
-        <v>81</v>
+        <v>40.5</v>
       </c>
       <c r="Z36" s="4">
         <f t="shared" si="13"/>
-        <v>81</v>
+        <v>40.5</v>
       </c>
       <c r="AA36" s="4">
         <f t="shared" si="14"/>
@@ -5740,11 +5744,11 @@
       </c>
       <c r="AF36" s="6">
         <f t="shared" si="21"/>
-        <v>8.1000000000000003E-2</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="AG36" s="6">
         <f t="shared" si="22"/>
-        <v>2773.44</v>
+        <v>1386.72</v>
       </c>
       <c r="AH36" s="6">
         <f t="shared" si="23"/>
@@ -5773,10 +5777,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" s="7">
-        <v>450</v>
+        <v>225</v>
       </c>
       <c r="D37" s="2">
         <v>1.2</v>
@@ -5799,14 +5803,14 @@
       </c>
       <c r="J37" s="4">
         <f t="shared" si="7"/>
-        <v>8.1000000000000003E-2</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="K37" s="4">
         <v>0</v>
       </c>
       <c r="L37" s="4">
         <f t="shared" si="8"/>
-        <v>2773.44</v>
+        <v>1386.72</v>
       </c>
       <c r="M37" s="4">
         <v>800</v>
@@ -5832,7 +5836,7 @@
       </c>
       <c r="T37" s="4">
         <f t="shared" si="10"/>
-        <v>48.6</v>
+        <v>24.3</v>
       </c>
       <c r="U37" s="4">
         <v>300</v>
@@ -5845,15 +5849,15 @@
       </c>
       <c r="X37" s="4">
         <f t="shared" si="11"/>
-        <v>32.4</v>
+        <v>16.2</v>
       </c>
       <c r="Y37" s="4">
         <f t="shared" si="18"/>
-        <v>81</v>
+        <v>40.5</v>
       </c>
       <c r="Z37" s="4">
         <f t="shared" si="13"/>
-        <v>81</v>
+        <v>40.5</v>
       </c>
       <c r="AA37" s="4">
         <f t="shared" si="14"/>
@@ -5877,11 +5881,11 @@
       </c>
       <c r="AF37" s="6">
         <f t="shared" si="21"/>
-        <v>8.1000000000000003E-2</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="AG37" s="6">
         <f t="shared" si="22"/>
-        <v>2773.44</v>
+        <v>1386.72</v>
       </c>
       <c r="AH37" s="6">
         <f t="shared" si="23"/>
@@ -5910,10 +5914,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" s="7">
-        <v>450</v>
+        <v>225</v>
       </c>
       <c r="D38" s="2">
         <v>1.2</v>
@@ -5936,14 +5940,14 @@
       </c>
       <c r="J38" s="4">
         <f t="shared" si="7"/>
-        <v>8.1000000000000003E-2</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="K38" s="4">
         <v>0</v>
       </c>
       <c r="L38" s="4">
         <f t="shared" si="8"/>
-        <v>2773.44</v>
+        <v>1386.72</v>
       </c>
       <c r="M38" s="4">
         <v>800</v>
@@ -5969,7 +5973,7 @@
       </c>
       <c r="T38" s="4">
         <f t="shared" si="10"/>
-        <v>48.6</v>
+        <v>24.3</v>
       </c>
       <c r="U38" s="4">
         <v>300</v>
@@ -5982,15 +5986,15 @@
       </c>
       <c r="X38" s="4">
         <f t="shared" si="11"/>
-        <v>32.4</v>
+        <v>16.2</v>
       </c>
       <c r="Y38" s="4">
         <f t="shared" si="18"/>
-        <v>81</v>
+        <v>40.5</v>
       </c>
       <c r="Z38" s="4">
         <f t="shared" si="13"/>
-        <v>81</v>
+        <v>40.5</v>
       </c>
       <c r="AA38" s="4">
         <f t="shared" si="14"/>
@@ -6014,11 +6018,11 @@
       </c>
       <c r="AF38" s="6">
         <f t="shared" si="21"/>
-        <v>8.1000000000000003E-2</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="AG38" s="6">
         <f t="shared" si="22"/>
-        <v>2773.44</v>
+        <v>1386.72</v>
       </c>
       <c r="AH38" s="6">
         <f t="shared" si="23"/>
@@ -6047,10 +6051,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C39" s="7">
-        <v>450</v>
+        <v>225</v>
       </c>
       <c r="D39" s="2">
         <v>1.2</v>
@@ -6073,14 +6077,14 @@
       </c>
       <c r="J39" s="4">
         <f t="shared" si="7"/>
-        <v>8.1000000000000003E-2</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="K39" s="4">
         <v>0</v>
       </c>
       <c r="L39" s="4">
         <f t="shared" si="8"/>
-        <v>2773.44</v>
+        <v>1386.72</v>
       </c>
       <c r="M39" s="4">
         <v>800</v>
@@ -6106,7 +6110,7 @@
       </c>
       <c r="T39" s="4">
         <f t="shared" si="10"/>
-        <v>48.6</v>
+        <v>24.3</v>
       </c>
       <c r="U39" s="4">
         <v>300</v>
@@ -6119,15 +6123,15 @@
       </c>
       <c r="X39" s="4">
         <f t="shared" si="11"/>
-        <v>32.4</v>
+        <v>16.2</v>
       </c>
       <c r="Y39" s="4">
         <f t="shared" si="18"/>
-        <v>81</v>
+        <v>40.5</v>
       </c>
       <c r="Z39" s="4">
         <f t="shared" si="13"/>
-        <v>81</v>
+        <v>40.5</v>
       </c>
       <c r="AA39" s="4">
         <f t="shared" si="14"/>
@@ -6151,11 +6155,11 @@
       </c>
       <c r="AF39" s="6">
         <f t="shared" si="21"/>
-        <v>8.1000000000000003E-2</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="AG39" s="6">
         <f t="shared" si="22"/>
-        <v>2773.44</v>
+        <v>1386.72</v>
       </c>
       <c r="AH39" s="6">
         <f t="shared" si="23"/>
@@ -6184,10 +6188,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="7">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D40" s="2">
         <v>1.2</v>
@@ -6210,14 +6214,14 @@
       </c>
       <c r="J40" s="4">
         <f t="shared" si="7"/>
-        <v>7.1999999999999995E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="K40" s="4">
         <v>0</v>
       </c>
       <c r="L40" s="4">
         <f t="shared" si="8"/>
-        <v>2465.2800000000002</v>
+        <v>1232.6400000000001</v>
       </c>
       <c r="M40" s="4">
         <v>800</v>
@@ -6243,7 +6247,7 @@
       </c>
       <c r="T40" s="4">
         <f t="shared" si="10"/>
-        <v>43.199999999999996</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="U40" s="4">
         <v>300</v>
@@ -6256,15 +6260,15 @@
       </c>
       <c r="X40" s="4">
         <f t="shared" si="11"/>
-        <v>28.8</v>
+        <v>14.4</v>
       </c>
       <c r="Y40" s="4">
         <f t="shared" si="18"/>
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="Z40" s="4">
         <f t="shared" si="13"/>
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="AA40" s="4">
         <f t="shared" si="14"/>
@@ -6288,11 +6292,11 @@
       </c>
       <c r="AF40" s="6">
         <f t="shared" si="21"/>
-        <v>7.1999999999999995E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="AG40" s="6">
         <f t="shared" si="22"/>
-        <v>2465.2800000000002</v>
+        <v>1232.6400000000001</v>
       </c>
       <c r="AH40" s="6">
         <f t="shared" si="23"/>
@@ -6321,10 +6325,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" s="7">
-        <v>380</v>
+        <v>190</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
@@ -6347,14 +6351,14 @@
       </c>
       <c r="J41" s="4">
         <f t="shared" si="7"/>
-        <v>4.5600000000000002E-2</v>
+        <v>2.2800000000000001E-2</v>
       </c>
       <c r="K41" s="4">
         <v>0</v>
       </c>
       <c r="L41" s="4">
         <f t="shared" si="8"/>
-        <v>1561.3440000000001</v>
+        <v>780.67200000000003</v>
       </c>
       <c r="M41" s="4">
         <v>800</v>
@@ -6380,7 +6384,7 @@
       </c>
       <c r="T41" s="4">
         <f t="shared" si="10"/>
-        <v>27.36</v>
+        <v>13.68</v>
       </c>
       <c r="U41" s="4">
         <v>300</v>
@@ -6393,15 +6397,15 @@
       </c>
       <c r="X41" s="4">
         <f t="shared" si="11"/>
-        <v>18.240000000000002</v>
+        <v>9.120000000000001</v>
       </c>
       <c r="Y41" s="4">
         <f t="shared" si="18"/>
-        <v>45.6</v>
+        <v>22.8</v>
       </c>
       <c r="Z41" s="4">
         <f t="shared" si="13"/>
-        <v>45.6</v>
+        <v>22.8</v>
       </c>
       <c r="AA41" s="4">
         <f t="shared" si="14"/>
@@ -6425,11 +6429,11 @@
       </c>
       <c r="AF41" s="6">
         <f t="shared" si="21"/>
-        <v>4.5600000000000002E-2</v>
+        <v>2.2800000000000001E-2</v>
       </c>
       <c r="AG41" s="6">
         <f t="shared" si="22"/>
-        <v>1561.3440000000001</v>
+        <v>780.67200000000003</v>
       </c>
       <c r="AH41" s="6">
         <f t="shared" si="23"/>
@@ -6458,10 +6462,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" s="7">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="D42" s="2">
         <v>1</v>
@@ -6484,14 +6488,14 @@
       </c>
       <c r="J42" s="4">
         <f t="shared" si="7"/>
-        <v>4.3199999999999995E-2</v>
+        <v>2.1599999999999998E-2</v>
       </c>
       <c r="K42" s="4">
         <v>0</v>
       </c>
       <c r="L42" s="4">
         <f t="shared" si="8"/>
-        <v>1479.1679999999999</v>
+        <v>739.58399999999995</v>
       </c>
       <c r="M42" s="4">
         <v>800</v>
@@ -6517,7 +6521,7 @@
       </c>
       <c r="T42" s="4">
         <f t="shared" si="10"/>
-        <v>25.919999999999998</v>
+        <v>12.959999999999999</v>
       </c>
       <c r="U42" s="4">
         <v>300</v>
@@ -6530,15 +6534,15 @@
       </c>
       <c r="X42" s="4">
         <f t="shared" si="11"/>
-        <v>17.279999999999998</v>
+        <v>8.6399999999999988</v>
       </c>
       <c r="Y42" s="4">
         <f t="shared" si="18"/>
-        <v>43.199999999999996</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="Z42" s="4">
         <f t="shared" si="13"/>
-        <v>43.199999999999996</v>
+        <v>21.599999999999998</v>
       </c>
       <c r="AA42" s="4">
         <f t="shared" si="14"/>
@@ -6562,11 +6566,11 @@
       </c>
       <c r="AF42" s="6">
         <f t="shared" si="21"/>
-        <v>4.3199999999999995E-2</v>
+        <v>2.1599999999999998E-2</v>
       </c>
       <c r="AG42" s="6">
         <f t="shared" si="22"/>
-        <v>1479.1679999999999</v>
+        <v>739.58399999999995</v>
       </c>
       <c r="AH42" s="6">
         <f t="shared" si="23"/>
@@ -6595,10 +6599,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="7">
-        <v>340</v>
+        <v>170</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
@@ -6621,14 +6625,14 @@
       </c>
       <c r="J43" s="4">
         <f t="shared" si="7"/>
-        <v>4.0799999999999996E-2</v>
+        <v>2.0399999999999998E-2</v>
       </c>
       <c r="K43" s="4">
         <v>0</v>
       </c>
       <c r="L43" s="4">
         <f t="shared" si="8"/>
-        <v>1396.992</v>
+        <v>698.49599999999998</v>
       </c>
       <c r="M43" s="4">
         <v>800</v>
@@ -6654,7 +6658,7 @@
       </c>
       <c r="T43" s="4">
         <f t="shared" si="10"/>
-        <v>24.479999999999997</v>
+        <v>12.239999999999998</v>
       </c>
       <c r="U43" s="4">
         <v>300</v>
@@ -6667,15 +6671,15 @@
       </c>
       <c r="X43" s="4">
         <f t="shared" si="11"/>
-        <v>16.32</v>
+        <v>8.16</v>
       </c>
       <c r="Y43" s="4">
         <f t="shared" si="18"/>
-        <v>40.799999999999997</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="Z43" s="4">
         <f t="shared" si="13"/>
-        <v>40.799999999999997</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="AA43" s="4">
         <f t="shared" si="14"/>
@@ -6699,11 +6703,11 @@
       </c>
       <c r="AF43" s="6">
         <f t="shared" si="21"/>
-        <v>4.0799999999999996E-2</v>
+        <v>2.0399999999999998E-2</v>
       </c>
       <c r="AG43" s="6">
         <f t="shared" si="22"/>
-        <v>1396.992</v>
+        <v>698.49599999999998</v>
       </c>
       <c r="AH43" s="6">
         <f t="shared" si="23"/>
@@ -6732,10 +6736,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" s="7">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="D44" s="2">
         <v>1</v>
@@ -6758,14 +6762,14 @@
       </c>
       <c r="J44" s="4">
         <f t="shared" si="7"/>
-        <v>3.8399999999999997E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="K44" s="4">
         <v>0</v>
       </c>
       <c r="L44" s="4">
         <f t="shared" si="8"/>
-        <v>1314.816</v>
+        <v>657.40800000000002</v>
       </c>
       <c r="M44" s="4">
         <v>800</v>
@@ -6791,7 +6795,7 @@
       </c>
       <c r="T44" s="4">
         <f t="shared" si="10"/>
-        <v>23.04</v>
+        <v>11.52</v>
       </c>
       <c r="U44" s="4">
         <v>300</v>
@@ -6804,15 +6808,15 @@
       </c>
       <c r="X44" s="4">
         <f t="shared" si="11"/>
-        <v>15.36</v>
+        <v>7.68</v>
       </c>
       <c r="Y44" s="4">
         <f t="shared" si="18"/>
-        <v>38.4</v>
+        <v>19.2</v>
       </c>
       <c r="Z44" s="4">
         <f t="shared" si="13"/>
-        <v>38.4</v>
+        <v>19.2</v>
       </c>
       <c r="AA44" s="4">
         <f t="shared" si="14"/>
@@ -6836,11 +6840,11 @@
       </c>
       <c r="AF44" s="6">
         <f t="shared" si="21"/>
-        <v>3.8399999999999997E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="AG44" s="6">
         <f t="shared" si="22"/>
-        <v>1314.816</v>
+        <v>657.40800000000002</v>
       </c>
       <c r="AH44" s="6">
         <f t="shared" si="23"/>
@@ -6869,10 +6873,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C45" s="7">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D45" s="2">
         <v>1</v>
@@ -6895,14 +6899,14 @@
       </c>
       <c r="J45" s="4">
         <f t="shared" si="7"/>
-        <v>3.5999999999999997E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="K45" s="4">
         <v>0</v>
       </c>
       <c r="L45" s="4">
         <f t="shared" si="8"/>
-        <v>1232.6400000000001</v>
+        <v>616.32000000000005</v>
       </c>
       <c r="M45" s="4">
         <v>800</v>
@@ -6928,7 +6932,7 @@
       </c>
       <c r="T45" s="4">
         <f t="shared" si="10"/>
-        <v>21.599999999999998</v>
+        <v>10.799999999999999</v>
       </c>
       <c r="U45" s="4">
         <v>300</v>
@@ -6941,15 +6945,15 @@
       </c>
       <c r="X45" s="4">
         <f t="shared" si="11"/>
-        <v>14.4</v>
+        <v>7.2</v>
       </c>
       <c r="Y45" s="4">
         <f t="shared" si="18"/>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="Z45" s="4">
         <f t="shared" si="13"/>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="AA45" s="4">
         <f t="shared" si="14"/>
@@ -6973,11 +6977,11 @@
       </c>
       <c r="AF45" s="6">
         <f t="shared" si="21"/>
-        <v>3.5999999999999997E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AG45" s="6">
         <f t="shared" si="22"/>
-        <v>1232.6400000000001</v>
+        <v>616.32000000000005</v>
       </c>
       <c r="AH45" s="6">
         <f t="shared" si="23"/>
@@ -7006,10 +7010,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46" s="7">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="D46" s="2">
         <v>1</v>
@@ -7032,14 +7036,14 @@
       </c>
       <c r="J46" s="4">
         <f t="shared" si="7"/>
-        <v>3.3600000000000005E-2</v>
+        <v>1.6800000000000002E-2</v>
       </c>
       <c r="K46" s="4">
         <v>0</v>
       </c>
       <c r="L46" s="4">
         <f t="shared" si="8"/>
-        <v>1150.4640000000002</v>
+        <v>575.23200000000008</v>
       </c>
       <c r="M46" s="4">
         <v>800</v>
@@ -7065,7 +7069,7 @@
       </c>
       <c r="T46" s="4">
         <f t="shared" si="10"/>
-        <v>20.16</v>
+        <v>10.08</v>
       </c>
       <c r="U46" s="4">
         <v>300</v>
@@ -7078,15 +7082,15 @@
       </c>
       <c r="X46" s="4">
         <f t="shared" si="11"/>
-        <v>13.440000000000001</v>
+        <v>6.7200000000000006</v>
       </c>
       <c r="Y46" s="4">
         <f t="shared" si="18"/>
-        <v>33.6</v>
+        <v>16.8</v>
       </c>
       <c r="Z46" s="4">
         <f t="shared" si="13"/>
-        <v>33.6</v>
+        <v>16.8</v>
       </c>
       <c r="AA46" s="4">
         <f t="shared" si="14"/>
@@ -7110,11 +7114,11 @@
       </c>
       <c r="AF46" s="6">
         <f t="shared" si="21"/>
-        <v>3.3600000000000005E-2</v>
+        <v>1.6800000000000002E-2</v>
       </c>
       <c r="AG46" s="6">
         <f t="shared" si="22"/>
-        <v>1150.4640000000002</v>
+        <v>575.23200000000008</v>
       </c>
       <c r="AH46" s="6">
         <f t="shared" si="23"/>
@@ -7143,10 +7147,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C47" s="7">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="D47" s="2">
         <v>1</v>
@@ -7169,14 +7173,14 @@
       </c>
       <c r="J47" s="4">
         <f t="shared" si="7"/>
-        <v>3.1199999999999999E-2</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="K47" s="4">
         <v>0</v>
       </c>
       <c r="L47" s="4">
         <f t="shared" si="8"/>
-        <v>1068.288</v>
+        <v>534.14400000000001</v>
       </c>
       <c r="M47" s="4">
         <v>800</v>
@@ -7202,7 +7206,7 @@
       </c>
       <c r="T47" s="4">
         <f t="shared" si="10"/>
-        <v>18.72</v>
+        <v>9.36</v>
       </c>
       <c r="U47" s="4">
         <v>300</v>
@@ -7215,15 +7219,15 @@
       </c>
       <c r="X47" s="4">
         <f t="shared" si="11"/>
-        <v>12.48</v>
+        <v>6.24</v>
       </c>
       <c r="Y47" s="4">
         <f t="shared" si="18"/>
-        <v>31.2</v>
+        <v>15.6</v>
       </c>
       <c r="Z47" s="4">
         <f t="shared" si="13"/>
-        <v>31.2</v>
+        <v>15.6</v>
       </c>
       <c r="AA47" s="4">
         <f t="shared" si="14"/>
@@ -7247,11 +7251,11 @@
       </c>
       <c r="AF47" s="6">
         <f t="shared" si="21"/>
-        <v>3.1199999999999999E-2</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="AG47" s="6">
         <f t="shared" si="22"/>
-        <v>1068.288</v>
+        <v>534.14400000000001</v>
       </c>
       <c r="AH47" s="6">
         <f t="shared" si="23"/>
@@ -7280,10 +7284,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C48" s="7">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="D48" s="2">
         <v>1</v>
@@ -7306,14 +7310,14 @@
       </c>
       <c r="J48" s="4">
         <f t="shared" si="7"/>
-        <v>2.8799999999999996E-2</v>
+        <v>1.4399999999999998E-2</v>
       </c>
       <c r="K48" s="4">
         <v>0</v>
       </c>
       <c r="L48" s="4">
         <f t="shared" si="8"/>
-        <v>986.11199999999997</v>
+        <v>493.05599999999998</v>
       </c>
       <c r="M48" s="4">
         <v>800</v>
@@ -7339,7 +7343,7 @@
       </c>
       <c r="T48" s="4">
         <f t="shared" si="10"/>
-        <v>17.279999999999998</v>
+        <v>8.6399999999999988</v>
       </c>
       <c r="U48" s="4">
         <v>300</v>
@@ -7352,15 +7356,15 @@
       </c>
       <c r="X48" s="4">
         <f t="shared" si="11"/>
-        <v>11.52</v>
+        <v>5.76</v>
       </c>
       <c r="Y48" s="4">
         <f t="shared" si="18"/>
-        <v>28.799999999999997</v>
+        <v>14.399999999999999</v>
       </c>
       <c r="Z48" s="4">
         <f t="shared" si="13"/>
-        <v>28.799999999999997</v>
+        <v>14.399999999999999</v>
       </c>
       <c r="AA48" s="4">
         <f t="shared" si="14"/>
@@ -7384,11 +7388,11 @@
       </c>
       <c r="AF48" s="6">
         <f t="shared" si="21"/>
-        <v>2.8799999999999996E-2</v>
+        <v>1.4399999999999998E-2</v>
       </c>
       <c r="AG48" s="6">
         <f t="shared" si="22"/>
-        <v>986.11199999999997</v>
+        <v>493.05599999999998</v>
       </c>
       <c r="AH48" s="6">
         <f t="shared" si="23"/>
@@ -7417,10 +7421,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C49" s="7">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="D49" s="2">
         <v>1</v>
@@ -7443,14 +7447,14 @@
       </c>
       <c r="J49" s="4">
         <f t="shared" si="7"/>
-        <v>2.64E-2</v>
+        <v>1.32E-2</v>
       </c>
       <c r="K49" s="4">
         <v>0</v>
       </c>
       <c r="L49" s="4">
         <f t="shared" si="8"/>
-        <v>903.93599999999992</v>
+        <v>451.96799999999996</v>
       </c>
       <c r="M49" s="4">
         <v>800</v>
@@ -7476,7 +7480,7 @@
       </c>
       <c r="T49" s="4">
         <f t="shared" si="10"/>
-        <v>15.839999999999998</v>
+        <v>7.919999999999999</v>
       </c>
       <c r="U49" s="4">
         <v>300</v>
@@ -7489,15 +7493,15 @@
       </c>
       <c r="X49" s="4">
         <f t="shared" si="11"/>
-        <v>10.56</v>
+        <v>5.28</v>
       </c>
       <c r="Y49" s="4">
         <f t="shared" si="18"/>
-        <v>26.4</v>
+        <v>13.2</v>
       </c>
       <c r="Z49" s="4">
         <f t="shared" si="13"/>
-        <v>26.4</v>
+        <v>13.2</v>
       </c>
       <c r="AA49" s="4">
         <f t="shared" si="14"/>
@@ -7521,11 +7525,11 @@
       </c>
       <c r="AF49" s="6">
         <f t="shared" si="21"/>
-        <v>2.64E-2</v>
+        <v>1.32E-2</v>
       </c>
       <c r="AG49" s="6">
         <f t="shared" si="22"/>
-        <v>903.93599999999992</v>
+        <v>451.96799999999996</v>
       </c>
       <c r="AH49" s="6">
         <f t="shared" si="23"/>
@@ -7554,10 +7558,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C50" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
@@ -7580,14 +7584,14 @@
       </c>
       <c r="J50" s="4">
         <f t="shared" si="7"/>
-        <v>2.4E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="K50" s="4">
         <v>0</v>
       </c>
       <c r="L50" s="4">
         <f t="shared" si="8"/>
-        <v>821.76</v>
+        <v>410.88</v>
       </c>
       <c r="M50" s="4">
         <v>800</v>
@@ -7613,7 +7617,7 @@
       </c>
       <c r="T50" s="4">
         <f t="shared" si="10"/>
-        <v>14.399999999999999</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="U50" s="4">
         <v>300</v>
@@ -7626,15 +7630,15 @@
       </c>
       <c r="X50" s="4">
         <f t="shared" si="11"/>
-        <v>9.6000000000000014</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="Y50" s="4">
         <f t="shared" si="18"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Z50" s="4">
         <f t="shared" si="13"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AA50" s="4">
         <f t="shared" si="14"/>
@@ -7658,11 +7662,11 @@
       </c>
       <c r="AF50" s="6">
         <f t="shared" si="21"/>
-        <v>2.4E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AG50" s="6">
         <f t="shared" si="22"/>
-        <v>821.76</v>
+        <v>410.88</v>
       </c>
       <c r="AH50" s="6">
         <f t="shared" si="23"/>
@@ -7691,10 +7695,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C51" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D51" s="2">
         <v>1</v>
@@ -7717,14 +7721,14 @@
       </c>
       <c r="J51" s="4">
         <f t="shared" si="7"/>
-        <v>2.4E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="K51" s="4">
         <v>0</v>
       </c>
       <c r="L51" s="4">
         <f t="shared" si="8"/>
-        <v>821.76</v>
+        <v>410.88</v>
       </c>
       <c r="M51" s="4">
         <v>800</v>
@@ -7750,7 +7754,7 @@
       </c>
       <c r="T51" s="4">
         <f t="shared" si="10"/>
-        <v>14.399999999999999</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="U51" s="4">
         <v>300</v>
@@ -7763,15 +7767,15 @@
       </c>
       <c r="X51" s="4">
         <f t="shared" si="11"/>
-        <v>9.6000000000000014</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="Y51" s="4">
         <f t="shared" si="18"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Z51" s="4">
         <f t="shared" si="13"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AA51" s="4">
         <f t="shared" si="14"/>
@@ -7795,11 +7799,11 @@
       </c>
       <c r="AF51" s="6">
         <f t="shared" si="21"/>
-        <v>2.4E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AG51" s="6">
         <f t="shared" si="22"/>
-        <v>821.76</v>
+        <v>410.88</v>
       </c>
       <c r="AH51" s="6">
         <f t="shared" si="23"/>
@@ -7828,10 +7832,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C52" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D52" s="2">
         <v>1</v>
@@ -7854,14 +7858,14 @@
       </c>
       <c r="J52" s="4">
         <f t="shared" si="7"/>
-        <v>2.4E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="K52" s="4">
         <v>0</v>
       </c>
       <c r="L52" s="4">
         <f t="shared" si="8"/>
-        <v>821.76</v>
+        <v>410.88</v>
       </c>
       <c r="M52" s="4">
         <v>800</v>
@@ -7887,7 +7891,7 @@
       </c>
       <c r="T52" s="4">
         <f t="shared" si="10"/>
-        <v>14.399999999999999</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="U52" s="4">
         <v>300</v>
@@ -7900,15 +7904,15 @@
       </c>
       <c r="X52" s="4">
         <f t="shared" si="11"/>
-        <v>9.6000000000000014</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="Y52" s="4">
         <f t="shared" si="18"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Z52" s="4">
         <f t="shared" si="13"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AA52" s="4">
         <f t="shared" si="14"/>
@@ -7932,11 +7936,11 @@
       </c>
       <c r="AF52" s="6">
         <f t="shared" si="21"/>
-        <v>2.4E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AG52" s="6">
         <f t="shared" si="22"/>
-        <v>821.76</v>
+        <v>410.88</v>
       </c>
       <c r="AH52" s="6">
         <f t="shared" si="23"/>
@@ -7965,10 +7969,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C53" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D53" s="2">
         <v>1</v>
@@ -7991,14 +7995,14 @@
       </c>
       <c r="J53" s="4">
         <f t="shared" si="7"/>
-        <v>2.4E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="K53" s="4">
         <v>0</v>
       </c>
       <c r="L53" s="4">
         <f t="shared" si="8"/>
-        <v>821.76</v>
+        <v>410.88</v>
       </c>
       <c r="M53" s="4">
         <v>800</v>
@@ -8024,7 +8028,7 @@
       </c>
       <c r="T53" s="4">
         <f t="shared" si="10"/>
-        <v>14.399999999999999</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="U53" s="4">
         <v>300</v>
@@ -8037,15 +8041,15 @@
       </c>
       <c r="X53" s="4">
         <f t="shared" si="11"/>
-        <v>9.6000000000000014</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="Y53" s="4">
         <f t="shared" si="18"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Z53" s="4">
         <f t="shared" si="13"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AA53" s="4">
         <f t="shared" si="14"/>
@@ -8069,11 +8073,11 @@
       </c>
       <c r="AF53" s="6">
         <f t="shared" si="21"/>
-        <v>2.4E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AG53" s="6">
         <f t="shared" si="22"/>
-        <v>821.76</v>
+        <v>410.88</v>
       </c>
       <c r="AH53" s="6">
         <f t="shared" si="23"/>
@@ -8102,10 +8106,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C54" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D54" s="2">
         <v>1</v>
@@ -8128,14 +8132,14 @@
       </c>
       <c r="J54" s="4">
         <f t="shared" si="7"/>
-        <v>2.4E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="K54" s="4">
         <v>0</v>
       </c>
       <c r="L54" s="4">
         <f t="shared" si="8"/>
-        <v>821.76</v>
+        <v>410.88</v>
       </c>
       <c r="M54" s="4">
         <v>800</v>
@@ -8161,7 +8165,7 @@
       </c>
       <c r="T54" s="4">
         <f t="shared" si="10"/>
-        <v>14.399999999999999</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="U54" s="4">
         <v>300</v>
@@ -8174,15 +8178,15 @@
       </c>
       <c r="X54" s="4">
         <f t="shared" si="11"/>
-        <v>9.6000000000000014</v>
+        <v>4.8000000000000007</v>
       </c>
       <c r="Y54" s="4">
         <f t="shared" si="18"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Z54" s="4">
         <f t="shared" si="13"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AA54" s="4">
         <f t="shared" si="14"/>
@@ -8206,11 +8210,11 @@
       </c>
       <c r="AF54" s="6">
         <f t="shared" si="21"/>
-        <v>2.4E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AG54" s="6">
         <f t="shared" si="22"/>
-        <v>821.76</v>
+        <v>410.88</v>
       </c>
       <c r="AH54" s="6">
         <f t="shared" si="23"/>
@@ -8239,10 +8243,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C55" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D55" s="2">
         <v>1</v>
@@ -8376,10 +8380,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C56" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D56" s="2">
         <v>1</v>
@@ -8513,10 +8517,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C57" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D57" s="2">
         <v>1</v>
@@ -8650,10 +8654,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C58" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D58" s="2">
         <v>1</v>
@@ -8787,10 +8791,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C59" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D59" s="2">
         <v>1</v>
@@ -8924,10 +8928,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C60" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D60" s="2">
         <v>1</v>
@@ -9061,10 +9065,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C61" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D61" s="2">
         <v>1</v>
@@ -9198,10 +9202,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C62" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D62" s="2">
         <v>1</v>
@@ -9335,10 +9339,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C63" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D63" s="2">
         <v>1</v>
@@ -9472,10 +9476,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C64" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D64" s="2">
         <v>1</v>
@@ -9609,10 +9613,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C65" s="7">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D65" s="2">
         <v>1</v>
@@ -9746,10 +9750,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C66" s="7">
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="D66" s="2">
         <v>0.8</v>
@@ -9772,14 +9776,14 @@
       </c>
       <c r="J66" s="4">
         <f t="shared" si="7"/>
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="K66" s="4">
         <v>0</v>
       </c>
       <c r="L66" s="4">
         <f t="shared" si="8"/>
-        <v>10272</v>
+        <v>5136</v>
       </c>
       <c r="M66" s="4">
         <v>800</v>
@@ -9805,7 +9809,7 @@
       </c>
       <c r="T66" s="4">
         <f t="shared" si="10"/>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="U66" s="4">
         <v>300</v>
@@ -9818,15 +9822,15 @@
       </c>
       <c r="X66" s="4">
         <f t="shared" si="11"/>
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="Y66" s="4">
         <f t="shared" si="18"/>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="Z66" s="4">
         <f t="shared" si="13"/>
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="AA66" s="4">
         <f t="shared" si="14"/>
@@ -9850,11 +9854,11 @@
       </c>
       <c r="AF66" s="6">
         <f t="shared" si="21"/>
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AG66" s="6">
         <f t="shared" si="22"/>
-        <v>10272</v>
+        <v>5136</v>
       </c>
       <c r="AH66" s="6">
         <f t="shared" si="23"/>
@@ -9883,10 +9887,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C67" s="7">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="D67" s="2">
         <v>0.8</v>
@@ -9909,14 +9913,14 @@
       </c>
       <c r="J67" s="4">
         <f t="shared" ref="J67:J70" si="27">C67*G67/1000</f>
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="K67" s="4">
         <v>0</v>
       </c>
       <c r="L67" s="4">
         <f t="shared" ref="L67:L70" si="28">C67*G67*(S67*Q67 + W67*V67)*0.08</f>
-        <v>8217.6</v>
+        <v>4108.8</v>
       </c>
       <c r="M67" s="4">
         <v>800</v>
@@ -9942,7 +9946,7 @@
       </c>
       <c r="T67" s="4">
         <f t="shared" ref="T67:T70" si="30">C67*G67*S67</f>
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="U67" s="4">
         <v>300</v>
@@ -9955,15 +9959,15 @@
       </c>
       <c r="X67" s="4">
         <f t="shared" ref="X67:X70" si="31">C67*G67*W67</f>
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="Y67" s="4">
         <f t="shared" si="18"/>
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="Z67" s="4">
         <f t="shared" ref="Z67:Z70" si="32">Y67</f>
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="AA67" s="4">
         <f t="shared" ref="AA67:AA70" si="33">Z67-Y67</f>
@@ -9987,11 +9991,11 @@
       </c>
       <c r="AF67" s="6">
         <f t="shared" si="21"/>
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="AG67" s="6">
         <f t="shared" si="22"/>
-        <v>8217.6</v>
+        <v>4108.8</v>
       </c>
       <c r="AH67" s="6">
         <f t="shared" si="23"/>
@@ -10020,10 +10024,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C68" s="7">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="D68" s="2">
         <v>0.8</v>
@@ -10157,10 +10161,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C69" s="7">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D69" s="2">
         <v>0.8</v>
@@ -10294,10 +10298,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C70" s="7">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D70" s="2">
         <v>0.8</v>
